--- a/data/P2P-Brazil-workshop_participants.xlsx
+++ b/data/P2P-Brazil-workshop_participants.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elibacter/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D143F5BD-18A3-0D41-A3A3-1728F4B6CC60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="16980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="P2P-Brazil-workshop_participant" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +87,6 @@
     <t>EcoQuants</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>ben@ecoquants.com</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t>ESPOL</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>agurtor@espol.edu.ec</t>
   </si>
   <si>
@@ -418,12 +406,27 @@
   </si>
   <si>
     <t>Edgardo Londoño</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Macrophytes</t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>Satellite Remote Sensing</t>
+  </si>
+  <si>
+    <t>RS &amp; DS (OBIS)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -793,19 +796,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -839,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -856,7 +860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -890,7 +894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -901,571 +905,571 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>68</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s">
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>76</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="B26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
         <v>91</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>101</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>102</v>
       </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
         <v>104</v>
       </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>108</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>110</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>111</v>
       </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>113</v>
       </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>123</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>125</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/P2P-Brazil-workshop_participants.xlsx
+++ b/data/P2P-Brazil-workshop_participants.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enrique\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="P2P-Brazil-workshop_participant" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
   <si>
     <t>Name</t>
   </si>
@@ -390,12 +395,6 @@
     <t>sennai.habtes@uvi.edu</t>
   </si>
   <si>
-    <t>Vinicius Giglio</t>
-  </si>
-  <si>
-    <t>vj.giglio@gmail.com</t>
-  </si>
-  <si>
     <t>Yasmina Shah Esmaeili</t>
   </si>
   <si>
@@ -421,16 +420,127 @@
   </si>
   <si>
     <t>RS &amp; DS (OBIS)</t>
+  </si>
+  <si>
+    <t>Abby Benson</t>
+  </si>
+  <si>
+    <t>USGS</t>
+  </si>
+  <si>
+    <t>albenson@usgs.gov</t>
+  </si>
+  <si>
+    <t>Alana Jute</t>
+  </si>
+  <si>
+    <t>Trinidad&amp;Tobago</t>
+  </si>
+  <si>
+    <t>UWI St. Augistine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alana.jute@gmail.com </t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>UNAM</t>
+  </si>
+  <si>
+    <t>edlinguerra@gmail.com</t>
+  </si>
+  <si>
+    <t>Edlin Guerra Castro</t>
+  </si>
+  <si>
+    <t>Elva Escobar-Briones</t>
+  </si>
+  <si>
+    <t>escobri@cmarl.unam.mx</t>
+  </si>
+  <si>
+    <t>Deep sea</t>
+  </si>
+  <si>
+    <t>Jonathan Lefcheck</t>
+  </si>
+  <si>
+    <t>LefcheckJ@si.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seagrasses </t>
+  </si>
+  <si>
+    <t>Maria Kavanaugh</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>mkavanau@ceoas.oregonstate.edu</t>
+  </si>
+  <si>
+    <t>Maria Lucila Del Gener</t>
+  </si>
+  <si>
+    <t>Natural History Museum Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marialuciladelgener@gmail.com </t>
+  </si>
+  <si>
+    <t>Nicholas Burnett</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>burnettnp@gmail.com</t>
+  </si>
+  <si>
+    <t>Kelp beds</t>
+  </si>
+  <si>
+    <t>Nuno Simoes</t>
+  </si>
+  <si>
+    <t>ns@ciencias.unam.mx</t>
+  </si>
+  <si>
+    <t>Rui Seabra</t>
+  </si>
+  <si>
+    <t>U. Porto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruisea@gmail.com </t>
+  </si>
+  <si>
+    <t>Vanessa Francisco</t>
+  </si>
+  <si>
+    <t>UNDP (Resiliencia) - Field Officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanewagen@gmail.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,8 +566,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,683 +912,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" style="1"/>
+    <col min="4" max="4" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E46" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+      <c r="E49" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
